--- a/estimation/VAEwithDG/DG_DenseRegressor_1st_torch/vaelstm_3rd_torch/IWALQQ_AE_1st/moBWHT/70/4_fold/39.xlsx
+++ b/estimation/VAEwithDG/DG_DenseRegressor_1st_torch/vaelstm_3rd_torch/IWALQQ_AE_1st/moBWHT/70/4_fold/39.xlsx
@@ -479,13 +479,13 @@
         <v>-0.349800534632403</v>
       </c>
       <c r="E2" t="n">
-        <v>-1.953474037367415</v>
+        <v>-1.948473372656053</v>
       </c>
       <c r="F2" t="n">
-        <v>0.1339253271707971</v>
+        <v>0.1327529085537974</v>
       </c>
       <c r="G2" t="n">
-        <v>-0.1487794045275815</v>
+        <v>-0.148355990581218</v>
       </c>
     </row>
     <row r="3">
@@ -502,13 +502,13 @@
         <v>-0.3667872419390146</v>
       </c>
       <c r="E3" t="n">
-        <v>-2.096877040760286</v>
+        <v>-2.09169387003756</v>
       </c>
       <c r="F3" t="n">
-        <v>0.06986863727835975</v>
+        <v>0.06922767616645083</v>
       </c>
       <c r="G3" t="n">
-        <v>-0.1208954060874072</v>
+        <v>-0.1206953794989527</v>
       </c>
     </row>
     <row r="4">
@@ -525,13 +525,13 @@
         <v>-0.4015856874614885</v>
       </c>
       <c r="E4" t="n">
-        <v>-2.310687943241046</v>
+        <v>-2.304546980970684</v>
       </c>
       <c r="F4" t="n">
-        <v>0.05726112201336313</v>
+        <v>0.05650627715036333</v>
       </c>
       <c r="G4" t="n">
-        <v>-0.144822674201219</v>
+        <v>-0.1441218511175828</v>
       </c>
     </row>
     <row r="5">
@@ -548,13 +548,13 @@
         <v>-0.4373913836824018</v>
       </c>
       <c r="E5" t="n">
-        <v>-2.481264631677864</v>
+        <v>-2.474488548487957</v>
       </c>
       <c r="F5" t="n">
-        <v>0.00110913248510548</v>
+        <v>0.001427422968923577</v>
       </c>
       <c r="G5" t="n">
-        <v>-0.1697340147283032</v>
+        <v>-0.1693923634750306</v>
       </c>
     </row>
     <row r="6">
@@ -571,13 +571,13 @@
         <v>-0.4601262166989208</v>
       </c>
       <c r="E6" t="n">
-        <v>-2.552985113999481</v>
+        <v>-2.545731595083847</v>
       </c>
       <c r="F6" t="n">
-        <v>-0.07539446738232852</v>
+        <v>-0.07424686958287428</v>
       </c>
       <c r="G6" t="n">
-        <v>-0.1719649682112117</v>
+        <v>-0.1719854088844844</v>
       </c>
     </row>
     <row r="7">
@@ -594,13 +594,13 @@
         <v>-0.4612459321242887</v>
       </c>
       <c r="E7" t="n">
-        <v>-2.349330306039082</v>
+        <v>-2.34389746709281</v>
       </c>
       <c r="F7" t="n">
-        <v>-0.1304514208424047</v>
+        <v>-0.1278014335574054</v>
       </c>
       <c r="G7" t="n">
-        <v>-0.1474843418709455</v>
+        <v>-0.1476799883151273</v>
       </c>
     </row>
     <row r="8">
@@ -617,13 +617,13 @@
         <v>-0.4357214262964195</v>
       </c>
       <c r="E8" t="n">
-        <v>-2.042485139205619</v>
+        <v>-2.036844243406393</v>
       </c>
       <c r="F8" t="n">
-        <v>-0.182754723603027</v>
+        <v>-0.1790578818368462</v>
       </c>
       <c r="G8" t="n">
-        <v>-0.1157720973364086</v>
+        <v>-0.1160232256080449</v>
       </c>
     </row>
     <row r="9">
@@ -640,13 +640,13 @@
         <v>-0.3772361486287286</v>
       </c>
       <c r="E9" t="n">
-        <v>-1.689744820682531</v>
+        <v>-1.683776144086897</v>
       </c>
       <c r="F9" t="n">
-        <v>-0.112086935954955</v>
+        <v>-0.1087244452015923</v>
       </c>
       <c r="G9" t="n">
-        <v>-0.07303210957123825</v>
+        <v>-0.07323943640014728</v>
       </c>
     </row>
     <row r="10">
@@ -663,13 +663,13 @@
         <v>-0.2768655291511417</v>
       </c>
       <c r="E10" t="n">
-        <v>-1.259884761997647</v>
+        <v>-1.253175841019921</v>
       </c>
       <c r="F10" t="n">
-        <v>0.006666075519103988</v>
+        <v>0.007806373078103682</v>
       </c>
       <c r="G10" t="n">
-        <v>-0.01034640483616417</v>
+        <v>-0.01043400772161869</v>
       </c>
     </row>
     <row r="11">
@@ -686,13 +686,13 @@
         <v>-0.1287507915330837</v>
       </c>
       <c r="E11" t="n">
-        <v>-0.9503866877830026</v>
+        <v>-0.941969510538914</v>
       </c>
       <c r="F11" t="n">
-        <v>0.07439624640826761</v>
+        <v>0.07455393160208576</v>
       </c>
       <c r="G11" t="n">
-        <v>-0.01620265772879896</v>
+        <v>-0.01605373282352628</v>
       </c>
     </row>
     <row r="12">
@@ -709,13 +709,13 @@
         <v>0.06222988652709095</v>
       </c>
       <c r="E12" t="n">
-        <v>-0.5894394389409178</v>
+        <v>-0.5794103686044659</v>
       </c>
       <c r="F12" t="n">
-        <v>0.1488440985637022</v>
+        <v>0.1476658397543389</v>
       </c>
       <c r="G12" t="n">
-        <v>-0.02405625640979685</v>
+        <v>-0.02291011865843352</v>
       </c>
     </row>
     <row r="13">
@@ -732,13 +732,13 @@
         <v>0.2803867372288585</v>
       </c>
       <c r="E13" t="n">
-        <v>-0.1505358423809447</v>
+        <v>-0.1380611914922208</v>
       </c>
       <c r="F13" t="n">
-        <v>0.01251940831555696</v>
+        <v>0.01159081772973903</v>
       </c>
       <c r="G13" t="n">
-        <v>0.04467550746973015</v>
+        <v>0.04586252656763892</v>
       </c>
     </row>
     <row r="14">
@@ -755,13 +755,13 @@
         <v>0.498043337773204</v>
       </c>
       <c r="E14" t="n">
-        <v>0.2997064876530253</v>
+        <v>0.3138207725478397</v>
       </c>
       <c r="F14" t="n">
-        <v>-0.1610438084912146</v>
+        <v>-0.1619096170091235</v>
       </c>
       <c r="G14" t="n">
-        <v>0.1104740347346216</v>
+        <v>0.1127166686022573</v>
       </c>
     </row>
     <row r="15">
@@ -778,13 +778,13 @@
         <v>0.6962829032307779</v>
       </c>
       <c r="E15" t="n">
-        <v>0.8444898516695154</v>
+        <v>0.8585033932460571</v>
       </c>
       <c r="F15" t="n">
-        <v>-0.1742119822231202</v>
+        <v>-0.1777861799496647</v>
       </c>
       <c r="G15" t="n">
-        <v>0.1923885728269632</v>
+        <v>0.1944370202985081</v>
       </c>
     </row>
     <row r="16">
@@ -801,13 +801,13 @@
         <v>0.8887737208896204</v>
       </c>
       <c r="E16" t="n">
-        <v>1.547757055809872</v>
+        <v>1.559995178907869</v>
       </c>
       <c r="F16" t="n">
-        <v>-0.5067788162741218</v>
+        <v>-0.5115225125214842</v>
       </c>
       <c r="G16" t="n">
-        <v>0.2572891705159458</v>
+        <v>0.2596340077499452</v>
       </c>
     </row>
     <row r="17">
@@ -824,13 +824,13 @@
         <v>1.098607986772897</v>
       </c>
       <c r="E17" t="n">
-        <v>2.2567140673605</v>
+        <v>2.26722203347077</v>
       </c>
       <c r="F17" t="n">
-        <v>-0.6712035920798958</v>
+        <v>-0.6773533146388032</v>
       </c>
       <c r="G17" t="n">
-        <v>0.3666613730059164</v>
+        <v>0.3694252440420066</v>
       </c>
     </row>
     <row r="18">
@@ -847,13 +847,13 @@
         <v>1.326093931451274</v>
       </c>
       <c r="E18" t="n">
-        <v>3.02456211865793</v>
+        <v>3.032890232968473</v>
       </c>
       <c r="F18" t="n">
-        <v>-0.9494931383513665</v>
+        <v>-0.9559319504322739</v>
       </c>
       <c r="G18" t="n">
-        <v>0.4767592193970687</v>
+        <v>0.4800122065436133</v>
       </c>
     </row>
     <row r="19">
@@ -870,13 +870,13 @@
         <v>1.551687727574643</v>
       </c>
       <c r="E19" t="n">
-        <v>3.65761999025076</v>
+        <v>3.664035441562213</v>
       </c>
       <c r="F19" t="n">
-        <v>-1.189019867857302</v>
+        <v>-1.195956556337209</v>
       </c>
       <c r="G19" t="n">
-        <v>0.5959896665968548</v>
+        <v>0.5998909150957629</v>
       </c>
     </row>
     <row r="20">
@@ -893,13 +893,13 @@
         <v>1.758137713433596</v>
       </c>
       <c r="E20" t="n">
-        <v>4.326230032857217</v>
+        <v>4.329119468029125</v>
       </c>
       <c r="F20" t="n">
-        <v>-1.449797597326414</v>
+        <v>-1.456506518304139</v>
       </c>
       <c r="G20" t="n">
-        <v>0.7055210143287345</v>
+        <v>0.7107377661575512</v>
       </c>
     </row>
     <row r="21">
@@ -916,13 +916,13 @@
         <v>1.941260268171231</v>
       </c>
       <c r="E21" t="n">
-        <v>4.853270892472985</v>
+        <v>4.854603916379984</v>
       </c>
       <c r="F21" t="n">
-        <v>-1.725006442126067</v>
+        <v>-1.730529804053975</v>
       </c>
       <c r="G21" t="n">
-        <v>0.8540633870016037</v>
+        <v>0.8588976062306024</v>
       </c>
     </row>
     <row r="22">
@@ -939,13 +939,13 @@
         <v>2.105155890294097</v>
       </c>
       <c r="E22" t="n">
-        <v>5.377466118359571</v>
+        <v>5.376133094452571</v>
       </c>
       <c r="F22" t="n">
-        <v>-1.945178774138917</v>
+        <v>-1.950449547747098</v>
       </c>
       <c r="G22" t="n">
-        <v>0.9405770765803078</v>
+        <v>0.9454594773963064</v>
       </c>
     </row>
     <row r="23">
@@ -962,13 +962,13 @@
         <v>2.247868853459856</v>
       </c>
       <c r="E23" t="n">
-        <v>5.728375536576658</v>
+        <v>5.725075827891205</v>
       </c>
       <c r="F23" t="n">
-        <v>-2.198272270505577</v>
+        <v>-2.201366842434258</v>
       </c>
       <c r="G23" t="n">
-        <v>1.048851322905915</v>
+        <v>1.05456303103755</v>
       </c>
     </row>
     <row r="24">
@@ -985,13 +985,13 @@
         <v>2.364630416870862</v>
       </c>
       <c r="E24" t="n">
-        <v>6.157410668090179</v>
+        <v>6.151090119904636</v>
       </c>
       <c r="F24" t="n">
-        <v>-2.431574084975923</v>
+        <v>-2.432716572607059</v>
       </c>
       <c r="G24" t="n">
-        <v>1.170860241622701</v>
+        <v>1.175839005612699</v>
       </c>
     </row>
     <row r="25">
@@ -1008,13 +1008,13 @@
         <v>2.45289047920393</v>
       </c>
       <c r="E25" t="n">
-        <v>6.453371176405918</v>
+        <v>6.44423273540492</v>
       </c>
       <c r="F25" t="n">
-        <v>-2.555195626809117</v>
+        <v>-2.556436667686389</v>
       </c>
       <c r="G25" t="n">
-        <v>1.244979582957681</v>
+        <v>1.249861983773679</v>
       </c>
     </row>
     <row r="26">
@@ -1031,13 +1031,13 @@
         <v>2.507525573371351</v>
       </c>
       <c r="E26" t="n">
-        <v>6.624075619050691</v>
+        <v>6.61187837729924</v>
       </c>
       <c r="F26" t="n">
-        <v>-2.603574320301377</v>
+        <v>-2.604932895049967</v>
       </c>
       <c r="G26" t="n">
-        <v>1.310830671953845</v>
+        <v>1.314520213479571</v>
       </c>
     </row>
     <row r="27">
@@ -1054,13 +1054,13 @@
         <v>2.523370324445208</v>
       </c>
       <c r="E27" t="n">
-        <v>6.731065023056298</v>
+        <v>6.71765156124512</v>
       </c>
       <c r="F27" t="n">
-        <v>-2.69025518538649</v>
+        <v>-2.690462512215399</v>
       </c>
       <c r="G27" t="n">
-        <v>1.320410047478297</v>
+        <v>1.324645646990023</v>
       </c>
     </row>
     <row r="28">
@@ -1077,13 +1077,13 @@
         <v>2.499242715782226</v>
       </c>
       <c r="E28" t="n">
-        <v>6.919711996690248</v>
+        <v>6.903883615336706</v>
       </c>
       <c r="F28" t="n">
-        <v>-2.715523507671802</v>
+        <v>-2.716624383932347</v>
       </c>
       <c r="G28" t="n">
-        <v>1.361377536861104</v>
+        <v>1.364905013048739</v>
       </c>
     </row>
     <row r="29">
@@ -1100,13 +1100,13 @@
         <v>2.438656023999098</v>
       </c>
       <c r="E29" t="n">
-        <v>6.885779019009439</v>
+        <v>6.86876507860608</v>
       </c>
       <c r="F29" t="n">
-        <v>-2.738223605365204</v>
+        <v>-2.738549196089477</v>
       </c>
       <c r="G29" t="n">
-        <v>1.347768428605744</v>
+        <v>1.350951333443925</v>
       </c>
     </row>
     <row r="30">
@@ -1123,13 +1123,13 @@
         <v>2.350106622123263</v>
       </c>
       <c r="E30" t="n">
-        <v>6.822697641241728</v>
+        <v>6.804984337802824</v>
       </c>
       <c r="F30" t="n">
-        <v>-2.638495020515686</v>
+        <v>-2.639834614639094</v>
       </c>
       <c r="G30" t="n">
-        <v>1.330938454261839</v>
+        <v>1.334204581841202</v>
       </c>
     </row>
     <row r="31">
@@ -1146,13 +1146,13 @@
         <v>2.246356467415126</v>
       </c>
       <c r="E31" t="n">
-        <v>6.851821220511084</v>
+        <v>6.831462309931453</v>
       </c>
       <c r="F31" t="n">
-        <v>-2.537672859646076</v>
+        <v>-2.539718387021439</v>
       </c>
       <c r="G31" t="n">
-        <v>1.292746516299849</v>
+        <v>1.296021404167758</v>
       </c>
     </row>
     <row r="32">
@@ -1169,13 +1169,13 @@
         <v>2.136531012085971</v>
       </c>
       <c r="E32" t="n">
-        <v>6.814597294433367</v>
+        <v>6.7924133237401</v>
       </c>
       <c r="F32" t="n">
-        <v>-2.402367282965386</v>
+        <v>-2.405174225420157</v>
       </c>
       <c r="G32" t="n">
-        <v>1.247633950386953</v>
+        <v>1.250269337191043</v>
       </c>
     </row>
     <row r="33">
@@ -1192,13 +1192,13 @@
         <v>2.027424643443266</v>
       </c>
       <c r="E33" t="n">
-        <v>6.650544830890775</v>
+        <v>6.626992795136326</v>
       </c>
       <c r="F33" t="n">
-        <v>-2.368653312498213</v>
+        <v>-2.371131014108485</v>
       </c>
       <c r="G33" t="n">
-        <v>1.189456874156605</v>
+        <v>1.192127302114877</v>
       </c>
     </row>
     <row r="34">
@@ -1215,13 +1215,13 @@
         <v>1.923898862752985</v>
       </c>
       <c r="E34" t="n">
-        <v>6.348719309393855</v>
+        <v>6.32738946683377</v>
       </c>
       <c r="F34" t="n">
-        <v>-2.330072271719996</v>
+        <v>-2.333163923552495</v>
       </c>
       <c r="G34" t="n">
-        <v>1.139264800935436</v>
+        <v>1.142287100483617</v>
       </c>
     </row>
     <row r="35">
@@ -1238,13 +1238,13 @@
         <v>1.827091850827266</v>
       </c>
       <c r="E35" t="n">
-        <v>6.154027736663545</v>
+        <v>6.132103654530459</v>
       </c>
       <c r="F35" t="n">
-        <v>-2.294045585076824</v>
+        <v>-2.296345160820005</v>
       </c>
       <c r="G35" t="n">
-        <v>1.079880264933907</v>
+        <v>1.082398847890724</v>
       </c>
     </row>
     <row r="36">
@@ -1261,13 +1261,13 @@
         <v>1.735544950369407</v>
       </c>
       <c r="E36" t="n">
-        <v>5.957708210311869</v>
+        <v>5.935271651298875</v>
       </c>
       <c r="F36" t="n">
-        <v>-2.228500376155705</v>
+        <v>-2.231636559454977</v>
       </c>
       <c r="G36" t="n">
-        <v>1.060077632676912</v>
+        <v>1.061539140815912</v>
       </c>
     </row>
     <row r="37">
@@ -1284,13 +1284,13 @@
         <v>1.648107475862657</v>
       </c>
       <c r="E37" t="n">
-        <v>5.649886271305589</v>
+        <v>5.628465905763867</v>
       </c>
       <c r="F37" t="n">
-        <v>-2.185212870356444</v>
+        <v>-2.18780883586208</v>
       </c>
       <c r="G37" t="n">
-        <v>0.9537627708893042</v>
+        <v>0.9557966178799401</v>
       </c>
     </row>
     <row r="38">
@@ -1307,13 +1307,13 @@
         <v>1.560935209750393</v>
       </c>
       <c r="E38" t="n">
-        <v>5.344098179289944</v>
+        <v>5.322292361052222</v>
       </c>
       <c r="F38" t="n">
-        <v>-2.138762170368229</v>
+        <v>-2.141377116499046</v>
       </c>
       <c r="G38" t="n">
-        <v>0.8800376425388695</v>
+        <v>0.8821590924149598</v>
       </c>
     </row>
     <row r="39">
@@ -1330,13 +1330,13 @@
         <v>1.473556598642859</v>
       </c>
       <c r="E39" t="n">
-        <v>5.029399413775483</v>
+        <v>5.00800970924367</v>
       </c>
       <c r="F39" t="n">
-        <v>-2.080601154666881</v>
+        <v>-2.082891970121517</v>
       </c>
       <c r="G39" t="n">
-        <v>0.7986268210378913</v>
+        <v>0.8011162030328907</v>
       </c>
     </row>
     <row r="40">
@@ -1353,13 +1353,13 @@
         <v>1.385972029202827</v>
       </c>
       <c r="E40" t="n">
-        <v>4.738404529016925</v>
+        <v>4.717036725206476</v>
       </c>
       <c r="F40" t="n">
-        <v>-2.102647880839602</v>
+        <v>-2.103885271596647</v>
       </c>
       <c r="G40" t="n">
-        <v>0.7596303965778108</v>
+        <v>0.761291931305265</v>
       </c>
     </row>
     <row r="41">
@@ -1376,13 +1376,13 @@
         <v>1.29713458826565</v>
       </c>
       <c r="E41" t="n">
-        <v>4.416037590929011</v>
+        <v>4.395266946787744</v>
       </c>
       <c r="F41" t="n">
-        <v>-1.996724311940358</v>
+        <v>-1.998311384215176</v>
       </c>
       <c r="G41" t="n">
-        <v>0.6797321848990142</v>
+        <v>0.6815733055416501</v>
       </c>
     </row>
     <row r="42">
@@ -1399,13 +1399,13 @@
         <v>1.208200115714615</v>
       </c>
       <c r="E42" t="n">
-        <v>4.034480303235659</v>
+        <v>4.01552157877521</v>
       </c>
       <c r="F42" t="n">
-        <v>-1.905653812269928</v>
+        <v>-1.907740220991837</v>
       </c>
       <c r="G42" t="n">
-        <v>0.600993251404399</v>
+        <v>0.6026182849295804</v>
       </c>
     </row>
     <row r="43">
@@ -1422,13 +1422,13 @@
         <v>1.118647761660063</v>
       </c>
       <c r="E43" t="n">
-        <v>3.731349498745467</v>
+        <v>3.713217161504472</v>
       </c>
       <c r="F43" t="n">
-        <v>-1.853189904219306</v>
+        <v>-1.855166079310351</v>
       </c>
       <c r="G43" t="n">
-        <v>0.5607426456342279</v>
+        <v>0.5623632990151366</v>
       </c>
     </row>
     <row r="44">
@@ -1445,13 +1445,13 @@
         <v>1.027678700704704</v>
       </c>
       <c r="E44" t="n">
-        <v>3.426798067462822</v>
+        <v>3.410171039803554</v>
       </c>
       <c r="F44" t="n">
-        <v>-1.757866284460059</v>
+        <v>-1.760056356596422</v>
       </c>
       <c r="G44" t="n">
-        <v>0.5125698189227863</v>
+        <v>0.5138473610023314</v>
       </c>
     </row>
     <row r="45">
@@ -1468,13 +1468,13 @@
         <v>0.9373102062093885</v>
       </c>
       <c r="E45" t="n">
-        <v>3.143472815325807</v>
+        <v>3.127331983680811</v>
       </c>
       <c r="F45" t="n">
-        <v>-1.675436349391626</v>
+        <v>-1.677495017199807</v>
       </c>
       <c r="G45" t="n">
-        <v>0.4166519595905394</v>
+        <v>0.4184098574919934</v>
       </c>
     </row>
     <row r="46">
@@ -1491,13 +1491,13 @@
         <v>0.8488611894535827</v>
       </c>
       <c r="E46" t="n">
-        <v>2.846992529889705</v>
+        <v>2.831692685945073</v>
       </c>
       <c r="F46" t="n">
-        <v>-1.597888815139192</v>
+        <v>-1.599564950347556</v>
       </c>
       <c r="G46" t="n">
-        <v>0.3787126099482768</v>
+        <v>0.3804778080901854</v>
       </c>
     </row>
     <row r="47">
@@ -1514,13 +1514,13 @@
         <v>0.7632382154997819</v>
       </c>
       <c r="E47" t="n">
-        <v>2.51454833987834</v>
+        <v>2.500606340658253</v>
       </c>
       <c r="F47" t="n">
-        <v>-1.475090010405225</v>
+        <v>-1.477358925138498</v>
       </c>
       <c r="G47" t="n">
-        <v>0.3150807940502939</v>
+        <v>0.3168007307013844</v>
       </c>
     </row>
     <row r="48">
@@ -1537,13 +1537,13 @@
         <v>0.6825449121866549</v>
       </c>
       <c r="E48" t="n">
-        <v>2.218611192332055</v>
+        <v>2.206135081395241</v>
       </c>
       <c r="F48" t="n">
-        <v>-1.369464291316526</v>
+        <v>-1.37255521312498</v>
       </c>
       <c r="G48" t="n">
-        <v>0.2878246162892103</v>
+        <v>0.2891036184168463</v>
       </c>
     </row>
     <row r="49">
@@ -1560,13 +1560,13 @@
         <v>0.6067518737056404</v>
       </c>
       <c r="E49" t="n">
-        <v>1.935069853077586</v>
+        <v>1.924104891914862</v>
       </c>
       <c r="F49" t="n">
-        <v>-1.282020551103914</v>
+        <v>-1.285371361472549</v>
       </c>
       <c r="G49" t="n">
-        <v>0.2336874931264067</v>
+        <v>0.2349898560234972</v>
       </c>
     </row>
     <row r="50">
@@ -1583,13 +1583,13 @@
         <v>0.5369764928625409</v>
       </c>
       <c r="E50" t="n">
-        <v>1.800846172032259</v>
+        <v>1.790033055870989</v>
       </c>
       <c r="F50" t="n">
-        <v>-1.158926816655583</v>
+        <v>-1.163014951310127</v>
       </c>
       <c r="G50" t="n">
-        <v>0.1964869278181439</v>
+        <v>0.1971074482567801</v>
       </c>
     </row>
     <row r="51">
@@ -1606,13 +1606,13 @@
         <v>0.4751834022747872</v>
       </c>
       <c r="E51" t="n">
-        <v>1.521357926278152</v>
+        <v>1.512809344705881</v>
       </c>
       <c r="F51" t="n">
-        <v>-1.082975114966513</v>
+        <v>-1.086977106783693</v>
       </c>
       <c r="G51" t="n">
-        <v>0.1660901866135157</v>
+        <v>0.1665355012812429</v>
       </c>
     </row>
     <row r="52">
@@ -1629,13 +1629,13 @@
         <v>0.4223143019740705</v>
       </c>
       <c r="E52" t="n">
-        <v>1.360240159398286</v>
+        <v>1.352684410527834</v>
       </c>
       <c r="F52" t="n">
-        <v>-0.9998662575358076</v>
+        <v>-1.004142738394079</v>
       </c>
       <c r="G52" t="n">
-        <v>0.1429630248535219</v>
+        <v>0.1437412304859763</v>
       </c>
     </row>
     <row r="53">
@@ -1652,13 +1652,13 @@
         <v>0.3779120299765897</v>
       </c>
       <c r="E53" t="n">
-        <v>1.11537841416817</v>
+        <v>1.108872439875081</v>
       </c>
       <c r="F53" t="n">
-        <v>-0.925307441725464</v>
+        <v>-0.9301854623971899</v>
       </c>
       <c r="G53" t="n">
-        <v>0.09976166189162444</v>
+        <v>0.1003208603104425</v>
       </c>
     </row>
     <row r="54">
@@ -1675,13 +1675,13 @@
         <v>0.3400576359900683</v>
       </c>
       <c r="E54" t="n">
-        <v>0.9690888956995728</v>
+        <v>0.9632224224703017</v>
       </c>
       <c r="F54" t="n">
-        <v>-0.9333493866101891</v>
+        <v>-0.9377558117485515</v>
       </c>
       <c r="G54" t="n">
-        <v>0.04899578977072899</v>
+        <v>0.04958856929563792</v>
       </c>
     </row>
     <row r="55">
@@ -1698,13 +1698,13 @@
         <v>0.3060821622935572</v>
       </c>
       <c r="E55" t="n">
-        <v>0.8071651822735254</v>
+        <v>0.8016681012112542</v>
       </c>
       <c r="F55" t="n">
-        <v>-0.8869607386658379</v>
+        <v>-0.8915788707773821</v>
       </c>
       <c r="G55" t="n">
-        <v>0.02037738714082758</v>
+        <v>0.02144030215100911</v>
       </c>
     </row>
     <row r="56">
@@ -1721,13 +1721,13 @@
         <v>0.274951127541938</v>
       </c>
       <c r="E56" t="n">
-        <v>0.6579249066132018</v>
+        <v>0.6540324184028392</v>
       </c>
       <c r="F56" t="n">
-        <v>-0.836730704194306</v>
+        <v>-0.84170216794385</v>
       </c>
       <c r="G56" t="n">
-        <v>0.01455179525810187</v>
+        <v>0.01522925757228351</v>
       </c>
     </row>
     <row r="57">
@@ -1744,13 +1744,13 @@
         <v>0.2459277754775787</v>
       </c>
       <c r="E57" t="n">
-        <v>0.5133524046995134</v>
+        <v>0.5101271584666961</v>
       </c>
       <c r="F57" t="n">
-        <v>-0.802891169591315</v>
+        <v>-0.8087985241671316</v>
       </c>
       <c r="G57" t="n">
-        <v>-0.01359355179034512</v>
+        <v>-0.01276424447470898</v>
       </c>
     </row>
     <row r="58">
@@ -1767,13 +1767,13 @@
         <v>0.2173681405577776</v>
       </c>
       <c r="E58" t="n">
-        <v>0.4021274011821796</v>
+        <v>0.3994788739452713</v>
       </c>
       <c r="F58" t="n">
-        <v>-0.7982555169026799</v>
+        <v>-0.8036168134924966</v>
       </c>
       <c r="G58" t="n">
-        <v>-0.02909634241961368</v>
+        <v>-0.02821447337270483</v>
       </c>
     </row>
     <row r="59">
@@ -1790,13 +1790,13 @@
         <v>0.188835834224799</v>
       </c>
       <c r="E59" t="n">
-        <v>0.2557488197800371</v>
+        <v>0.2535485273070377</v>
       </c>
       <c r="F59" t="n">
-        <v>-0.7335929070525155</v>
+        <v>-0.7389220825843321</v>
       </c>
       <c r="G59" t="n">
-        <v>-0.09503503430123234</v>
+        <v>-0.09396335900250535</v>
       </c>
     </row>
     <row r="60">
@@ -1813,13 +1813,13 @@
         <v>0.1595614991320152</v>
       </c>
       <c r="E60" t="n">
-        <v>0.1946297466465081</v>
+        <v>0.1929463111976903</v>
       </c>
       <c r="F60" t="n">
-        <v>-0.7167716929971563</v>
+        <v>-0.7219490235275186</v>
       </c>
       <c r="G60" t="n">
-        <v>-0.0819530034066904</v>
+        <v>-0.08106383411932699</v>
       </c>
     </row>
     <row r="61">
@@ -1836,13 +1836,13 @@
         <v>0.1287970181753682</v>
       </c>
       <c r="E61" t="n">
-        <v>0.03614590652264153</v>
+        <v>0.03469023857600555</v>
       </c>
       <c r="F61" t="n">
-        <v>-0.6894016314849818</v>
+        <v>-0.6944417174947987</v>
       </c>
       <c r="G61" t="n">
-        <v>-0.1386963124117661</v>
+        <v>-0.1376275572092209</v>
       </c>
     </row>
     <row r="62">
@@ -1859,13 +1859,13 @@
         <v>0.09700290445458298</v>
       </c>
       <c r="E62" t="n">
-        <v>-0.05085981926269875</v>
+        <v>-0.05235052836351653</v>
       </c>
       <c r="F62" t="n">
-        <v>-0.707725235025886</v>
+        <v>-0.7128558440173391</v>
       </c>
       <c r="G62" t="n">
-        <v>-0.1700333245869395</v>
+        <v>-0.1693091407338488</v>
       </c>
     </row>
     <row r="63">
@@ -1882,13 +1882,13 @@
         <v>0.06485371714403022</v>
       </c>
       <c r="E63" t="n">
-        <v>-0.145158485262128</v>
+        <v>-0.1462579014745822</v>
       </c>
       <c r="F63" t="n">
-        <v>-0.7418596993432405</v>
+        <v>-0.7468209427561482</v>
       </c>
       <c r="G63" t="n">
-        <v>-0.1853375486758445</v>
+        <v>-0.1846221251112992</v>
       </c>
     </row>
     <row r="64">
@@ -1905,13 +1905,13 @@
         <v>0.03346820505106331</v>
       </c>
       <c r="E64" t="n">
-        <v>-0.2572624377301888</v>
+        <v>-0.2587706674080975</v>
       </c>
       <c r="F64" t="n">
-        <v>-0.7444118634061488</v>
+        <v>-0.7495950341288747</v>
       </c>
       <c r="G64" t="n">
-        <v>-0.2186996475531082</v>
+        <v>-0.2178338390351994</v>
       </c>
     </row>
     <row r="65">
@@ -1928,13 +1928,13 @@
         <v>0.003526767017154332</v>
       </c>
       <c r="E65" t="n">
-        <v>-0.4108989181922384</v>
+        <v>-0.4119180317596927</v>
       </c>
       <c r="F65" t="n">
-        <v>-0.7247975773528814</v>
+        <v>-0.7303384598578799</v>
       </c>
       <c r="G65" t="n">
-        <v>-0.2389432143335573</v>
+        <v>-0.2382759723560121</v>
       </c>
     </row>
     <row r="66">
@@ -1951,13 +1951,13 @@
         <v>-0.02440615039484159</v>
       </c>
       <c r="E66" t="n">
-        <v>-0.4334055595135961</v>
+        <v>-0.4353620239554137</v>
       </c>
       <c r="F66" t="n">
-        <v>-0.7556600738985095</v>
+        <v>-0.7609717288532354</v>
       </c>
       <c r="G66" t="n">
-        <v>-0.2535874966853716</v>
+        <v>-0.2533553490389171</v>
       </c>
     </row>
     <row r="67">
@@ -1974,13 +1974,13 @@
         <v>-0.04989183765448054</v>
       </c>
       <c r="E67" t="n">
-        <v>-0.5211398492962998</v>
+        <v>-0.5224860136361176</v>
       </c>
       <c r="F67" t="n">
-        <v>-0.7962245900082259</v>
+        <v>-0.8015362449629517</v>
       </c>
       <c r="G67" t="n">
-        <v>-0.2680638735067313</v>
+        <v>-0.2680974546128223</v>
       </c>
     </row>
     <row r="68">
@@ -1997,13 +1997,13 @@
         <v>-0.07289863992554761</v>
       </c>
       <c r="E68" t="n">
-        <v>-0.5527703311377458</v>
+        <v>-0.554877180532927</v>
       </c>
       <c r="F68" t="n">
-        <v>-0.7422086508369676</v>
+        <v>-0.7487379858995113</v>
       </c>
       <c r="G68" t="n">
-        <v>-0.321097200312808</v>
+        <v>-0.320266432949081</v>
       </c>
     </row>
     <row r="69">
@@ -2020,13 +2020,13 @@
         <v>-0.09405612282398694</v>
       </c>
       <c r="E69" t="n">
-        <v>-0.6339752858579059</v>
+        <v>-0.6357755251539963</v>
       </c>
       <c r="F69" t="n">
-        <v>-0.7890615940742278</v>
+        <v>-0.7951018130263171</v>
       </c>
       <c r="G69" t="n">
-        <v>-0.3180778208608088</v>
+        <v>-0.3179245158112634</v>
       </c>
     </row>
     <row r="70">
@@ -2043,13 +2043,13 @@
         <v>-0.1142153911426374</v>
       </c>
       <c r="E70" t="n">
-        <v>-0.7440789724414217</v>
+        <v>-0.7457127662551485</v>
       </c>
       <c r="F70" t="n">
-        <v>-0.7834316486356838</v>
+        <v>-0.7905961046177729</v>
       </c>
       <c r="G70" t="n">
-        <v>-0.3589270463482524</v>
+        <v>-0.3583123661019798</v>
       </c>
     </row>
     <row r="71">
@@ -2066,13 +2066,13 @@
         <v>-0.1334004717562298</v>
       </c>
       <c r="E71" t="n">
-        <v>-0.772011152468596</v>
+        <v>-0.7737150285906864</v>
       </c>
       <c r="F71" t="n">
-        <v>-0.914400882486376</v>
+        <v>-0.9206133871131925</v>
       </c>
       <c r="G71" t="n">
-        <v>-0.4047302150081492</v>
+        <v>-0.4036001377857859</v>
       </c>
     </row>
     <row r="72">
@@ -2089,13 +2089,13 @@
         <v>-0.1529028367924313</v>
       </c>
       <c r="E72" t="n">
-        <v>-0.8144153291728573</v>
+        <v>-0.8161294256315842</v>
       </c>
       <c r="F72" t="n">
-        <v>-0.980971775191358</v>
+        <v>-0.9871755195296291</v>
       </c>
       <c r="G72" t="n">
-        <v>-0.4218156977679628</v>
+        <v>-0.4208447657875085</v>
       </c>
     </row>
     <row r="73">
@@ -2112,13 +2112,13 @@
         <v>-0.174531600178425</v>
       </c>
       <c r="E73" t="n">
-        <v>-0.8679874137244793</v>
+        <v>-0.8686575757982065</v>
       </c>
       <c r="F73" t="n">
-        <v>-1.01677361442853</v>
+        <v>-1.022349538087711</v>
       </c>
       <c r="G73" t="n">
-        <v>-0.4554493655901355</v>
+        <v>-0.4542973876464086</v>
       </c>
     </row>
     <row r="74">
@@ -2135,13 +2135,13 @@
         <v>-0.1985582078947295</v>
       </c>
       <c r="E74" t="n">
-        <v>-0.8115404944818582</v>
+        <v>-0.8115711554917672</v>
       </c>
       <c r="F74" t="n">
-        <v>-1.041413386010706</v>
+        <v>-1.047138234575159</v>
       </c>
       <c r="G74" t="n">
-        <v>-0.4700323259221316</v>
+        <v>-0.4688073455738592</v>
       </c>
     </row>
     <row r="75">
@@ -2158,13 +2158,13 @@
         <v>-0.2240817480520405</v>
       </c>
       <c r="E75" t="n">
-        <v>-0.7968100692926803</v>
+        <v>-0.7962333502967713</v>
       </c>
       <c r="F75" t="n">
-        <v>-1.109089535120505</v>
+        <v>-1.113790889973232</v>
       </c>
       <c r="G75" t="n">
-        <v>-0.4590367037494982</v>
+        <v>-0.4575649752738623</v>
       </c>
     </row>
     <row r="76">
@@ -2181,13 +2181,13 @@
         <v>-0.2494100735744057</v>
       </c>
       <c r="E76" t="n">
-        <v>-0.7132777979156117</v>
+        <v>-0.7130792313752482</v>
       </c>
       <c r="F76" t="n">
-        <v>-1.153272050399494</v>
+        <v>-1.157214180244947</v>
       </c>
       <c r="G76" t="n">
-        <v>-0.4612413763667704</v>
+        <v>-0.460064577605498</v>
       </c>
     </row>
     <row r="77">
@@ -2204,13 +2204,13 @@
         <v>-0.2730190798737943</v>
       </c>
       <c r="E77" t="n">
-        <v>-0.5604531041921074</v>
+        <v>-0.5609305399178345</v>
       </c>
       <c r="F77" t="n">
-        <v>-1.13588141758868</v>
+        <v>-1.140687895903951</v>
       </c>
       <c r="G77" t="n">
-        <v>-0.4423556543108664</v>
+        <v>-0.4409846691535031</v>
       </c>
     </row>
     <row r="78">
@@ -2227,13 +2227,13 @@
         <v>-0.2922636507494967</v>
       </c>
       <c r="E78" t="n">
-        <v>-0.4197599500559633</v>
+        <v>-0.4212710998300538</v>
       </c>
       <c r="F78" t="n">
-        <v>-1.161789970961855</v>
+        <v>-1.165876645568309</v>
       </c>
       <c r="G78" t="n">
-        <v>-0.4562830530500444</v>
+        <v>-0.4542375256746813</v>
       </c>
     </row>
     <row r="79">
@@ -2250,13 +2250,13 @@
         <v>-0.3037934243959595</v>
       </c>
       <c r="E79" t="n">
-        <v>-0.3165549907019911</v>
+        <v>-0.3182223656218088</v>
       </c>
       <c r="F79" t="n">
-        <v>-1.245504748350287</v>
+        <v>-1.248857018767013</v>
       </c>
       <c r="G79" t="n">
-        <v>-0.3990228870207871</v>
+        <v>-0.3973350714276966</v>
       </c>
     </row>
     <row r="80">
@@ -2273,13 +2273,13 @@
         <v>-0.3052071000927042</v>
       </c>
       <c r="E80" t="n">
-        <v>-0.1271750729264055</v>
+        <v>-0.1292279005422232</v>
       </c>
       <c r="F80" t="n">
-        <v>-1.304135899536908</v>
+        <v>-1.306724564802089</v>
       </c>
       <c r="G80" t="n">
-        <v>-0.376619909113884</v>
+        <v>-0.375051817464248</v>
       </c>
     </row>
     <row r="81">
@@ -2296,13 +2296,13 @@
         <v>-0.2948747494299717</v>
       </c>
       <c r="E81" t="n">
-        <v>0.03254688797855158</v>
+        <v>0.029981583482825</v>
       </c>
       <c r="F81" t="n">
-        <v>-1.299103113767545</v>
+        <v>-1.300361675221909</v>
       </c>
       <c r="G81" t="n">
-        <v>-0.3251050323223524</v>
+        <v>-0.3241384804861708</v>
       </c>
     </row>
     <row r="82">
@@ -2319,13 +2319,13 @@
         <v>-0.2715090947384363</v>
       </c>
       <c r="E82" t="n">
-        <v>0.2453021756895854</v>
+        <v>0.2422623555643134</v>
       </c>
       <c r="F82" t="n">
-        <v>-1.288793714197639</v>
+        <v>-1.289160186268457</v>
       </c>
       <c r="G82" t="n">
-        <v>-0.2888768590426348</v>
+        <v>-0.2881088737468169</v>
       </c>
     </row>
     <row r="83">
@@ -2342,13 +2342,13 @@
         <v>-0.2340970364856727</v>
       </c>
       <c r="E83" t="n">
-        <v>0.4276651023402637</v>
+        <v>0.424636962599719</v>
       </c>
       <c r="F83" t="n">
-        <v>-1.229439839206019</v>
+        <v>-1.230152342674382</v>
       </c>
       <c r="G83" t="n">
-        <v>-0.2708876065145487</v>
+        <v>-0.2703313281919125</v>
       </c>
     </row>
     <row r="84">
@@ -2365,13 +2365,13 @@
         <v>-0.1826586573423626</v>
       </c>
       <c r="E84" t="n">
-        <v>0.6328398203632994</v>
+        <v>0.6303153972141183</v>
       </c>
       <c r="F84" t="n">
-        <v>-1.150992915329585</v>
+        <v>-1.152095251638221</v>
       </c>
       <c r="G84" t="n">
-        <v>-0.2464099002704644</v>
+        <v>-0.2457353580524646</v>
       </c>
     </row>
     <row r="85">
@@ -2388,13 +2388,13 @@
         <v>-0.1190719980234079</v>
       </c>
       <c r="E85" t="n">
-        <v>0.7448620101382694</v>
+        <v>0.7433318797389971</v>
       </c>
       <c r="F85" t="n">
-        <v>-1.061291940768427</v>
+        <v>-1.063156422180518</v>
       </c>
       <c r="G85" t="n">
-        <v>-0.2101846470869287</v>
+        <v>-0.2098327754970197</v>
       </c>
     </row>
     <row r="86">
@@ -2411,13 +2411,13 @@
         <v>-0.04669470146141746</v>
       </c>
       <c r="E86" t="n">
-        <v>0.9719432897172994</v>
+        <v>0.9694057261353001</v>
       </c>
       <c r="F86" t="n">
-        <v>-0.9970147836142629</v>
+        <v>-0.9978981127092627</v>
       </c>
       <c r="G86" t="n">
-        <v>-0.1817385301317545</v>
+        <v>-0.1811442905587547</v>
       </c>
     </row>
     <row r="87">
@@ -2434,13 +2434,13 @@
         <v>0.02902252957085553</v>
       </c>
       <c r="E87" t="n">
-        <v>1.11483235618217</v>
+        <v>1.112369255052807</v>
       </c>
       <c r="F87" t="n">
-        <v>-0.9423929244852776</v>
+        <v>-0.9427068348248229</v>
       </c>
       <c r="G87" t="n">
-        <v>-0.1517768832582171</v>
+        <v>-0.1512614862821263</v>
       </c>
     </row>
     <row r="88">
@@ -2457,13 +2457,13 @@
         <v>0.1010802203805522</v>
       </c>
       <c r="E88" t="n">
-        <v>1.215292425125234</v>
+        <v>1.213724333475598</v>
       </c>
       <c r="F88" t="n">
-        <v>-0.8885770119024738</v>
+        <v>-0.8885317504116557</v>
       </c>
       <c r="G88" t="n">
-        <v>-0.115621712383045</v>
+        <v>-0.1149938917039543</v>
       </c>
     </row>
     <row r="89">
@@ -2480,13 +2480,13 @@
         <v>0.1610175260443222</v>
       </c>
       <c r="E89" t="n">
-        <v>1.337368506054201</v>
+        <v>1.335787273971747</v>
       </c>
       <c r="F89" t="n">
-        <v>-0.795183575719408</v>
+        <v>-0.7937498084941357</v>
       </c>
       <c r="G89" t="n">
-        <v>-0.1139572575594091</v>
+        <v>-0.113398059140591</v>
       </c>
     </row>
     <row r="90">
@@ -2503,13 +2503,13 @@
         <v>0.2009466988871614</v>
       </c>
       <c r="E90" t="n">
-        <v>1.371688396479101</v>
+        <v>1.371564292391374</v>
       </c>
       <c r="F90" t="n">
-        <v>-0.6950797585105257</v>
+        <v>-0.693685412583708</v>
       </c>
       <c r="G90" t="n">
-        <v>-0.07917453188969115</v>
+        <v>-0.07876133827996398</v>
       </c>
     </row>
     <row r="91">
@@ -2526,13 +2526,13 @@
         <v>0.2167608427045192</v>
       </c>
       <c r="E91" t="n">
-        <v>1.415175928866817</v>
+        <v>1.415574521995635</v>
       </c>
       <c r="F91" t="n">
-        <v>-0.5910746928027355</v>
+        <v>-0.5890218651869179</v>
       </c>
       <c r="G91" t="n">
-        <v>-0.01607563354488991</v>
+        <v>-0.01643918551952617</v>
       </c>
     </row>
     <row r="92">
@@ -2549,13 +2549,13 @@
         <v>0.2074160900795983</v>
       </c>
       <c r="E92" t="n">
-        <v>1.438287030097811</v>
+        <v>1.438767385919719</v>
       </c>
       <c r="F92" t="n">
-        <v>-0.4647454917849512</v>
+        <v>-0.462047322912952</v>
       </c>
       <c r="G92" t="n">
-        <v>-0.02117412147834308</v>
+        <v>-0.02076238791670683</v>
       </c>
     </row>
     <row r="93">
@@ -2572,13 +2572,13 @@
         <v>0.1756157801642274</v>
       </c>
       <c r="E93" t="n">
-        <v>1.408120976491546</v>
+        <v>1.409332816407</v>
       </c>
       <c r="F93" t="n">
-        <v>-0.3569720419545256</v>
+        <v>-0.3539074010117083</v>
       </c>
       <c r="G93" t="n">
-        <v>-0.01428269448925402</v>
+        <v>-0.01412646934352679</v>
       </c>
     </row>
     <row r="94">
@@ -2595,13 +2595,13 @@
         <v>0.1261601925969929</v>
       </c>
       <c r="E94" t="n">
-        <v>1.409997138288364</v>
+        <v>1.410208845261545</v>
       </c>
       <c r="F94" t="n">
-        <v>-0.2165781976770179</v>
+        <v>-0.2140625348163822</v>
       </c>
       <c r="G94" t="n">
-        <v>-0.01629172066234439</v>
+        <v>-0.01645086590425344</v>
       </c>
     </row>
     <row r="95">
@@ -2618,13 +2618,13 @@
         <v>0.06531188613920265</v>
       </c>
       <c r="E95" t="n">
-        <v>1.334344746457929</v>
+        <v>1.335076230551475</v>
       </c>
       <c r="F95" t="n">
-        <v>-0.09970134799977654</v>
+        <v>-0.09772882302895888</v>
       </c>
       <c r="G95" t="n">
-        <v>-0.01849785332770744</v>
+        <v>-0.01884096462907098</v>
       </c>
     </row>
     <row r="96">
@@ -2641,13 +2641,13 @@
         <v>0.0005648001704767589</v>
       </c>
       <c r="E96" t="n">
-        <v>1.257137403410677</v>
+        <v>1.257319909422041</v>
       </c>
       <c r="F96" t="n">
-        <v>0.02859891794073446</v>
+        <v>0.02995676266527955</v>
       </c>
       <c r="G96" t="n">
-        <v>-0.03383711857079422</v>
+        <v>-0.03381375780133969</v>
       </c>
     </row>
     <row r="97">
@@ -2664,13 +2664,13 @@
         <v>-0.06252450032358034</v>
       </c>
       <c r="E97" t="n">
-        <v>1.173384664771882</v>
+        <v>1.174224192424154</v>
       </c>
       <c r="F97" t="n">
-        <v>0.1312344585392524</v>
+        <v>0.1317118942649795</v>
       </c>
       <c r="G97" t="n">
-        <v>-0.05224686494906201</v>
+        <v>-0.0523286276421529</v>
       </c>
     </row>
     <row r="98">
@@ -2687,13 +2687,13 @@
         <v>-0.1232545964752995</v>
       </c>
       <c r="E98" t="n">
-        <v>1.073818145260454</v>
+        <v>1.075393537150544</v>
       </c>
       <c r="F98" t="n">
-        <v>0.1928032264847813</v>
+        <v>0.1929769722075994</v>
       </c>
       <c r="G98" t="n">
-        <v>-0.05768992423196964</v>
+        <v>-0.0575833407213333</v>
       </c>
     </row>
     <row r="99">
@@ -2710,13 +2710,13 @@
         <v>-0.1804963852628384</v>
       </c>
       <c r="E99" t="n">
-        <v>0.9365853050997633</v>
+        <v>0.9379154089105812</v>
       </c>
       <c r="F99" t="n">
-        <v>0.1944808217412354</v>
+        <v>0.1945552841938717</v>
       </c>
       <c r="G99" t="n">
-        <v>-0.05003927223560806</v>
+        <v>-0.05076491613678968</v>
       </c>
     </row>
     <row r="100">
@@ -2733,13 +2733,13 @@
         <v>-0.2375454778138253</v>
       </c>
       <c r="E100" t="n">
-        <v>0.8411492616375162</v>
+        <v>0.8429246801160613</v>
       </c>
       <c r="F100" t="n">
-        <v>0.2117692511856853</v>
+        <v>0.2115298032987762</v>
       </c>
       <c r="G100" t="n">
-        <v>-0.04459475290460952</v>
+        <v>-0.04488530247470035</v>
       </c>
     </row>
     <row r="101">
@@ -2756,13 +2756,13 @@
         <v>-0.2899255526575383</v>
       </c>
       <c r="E101" t="n">
-        <v>0.6865243286179215</v>
+        <v>0.6889523885931026</v>
       </c>
       <c r="F101" t="n">
-        <v>0.1973483561917801</v>
+        <v>0.1974534796543255</v>
       </c>
       <c r="G101" t="n">
-        <v>-0.04856170356760846</v>
+        <v>-0.04908586083224468</v>
       </c>
     </row>
     <row r="102">
@@ -2779,13 +2779,13 @@
         <v>-0.3387015398026548</v>
       </c>
       <c r="E102" t="n">
-        <v>0.6281005042602098</v>
+        <v>0.6299985667783912</v>
       </c>
       <c r="F102" t="n">
-        <v>0.2073102643160501</v>
+        <v>0.2070591360444138</v>
       </c>
       <c r="G102" t="n">
-        <v>-0.08089738863696341</v>
+        <v>-0.08121275902459969</v>
       </c>
     </row>
   </sheetData>
